--- a/apps/features/backlog/android/windows_installation.xlsx
+++ b/apps/features/backlog/android/windows_installation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\apps\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCFAE38-B0A8-481A-8288-BD65FE4CD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341E7FC-9368-40EE-AE2F-8BB094678AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows_installation" sheetId="1" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/apps/features/backlog/android/windows_installation.xlsx
+++ b/apps/features/backlog/android/windows_installation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\apps\features\backlog\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341E7FC-9368-40EE-AE2F-8BB094678AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCFAE38-B0A8-481A-8288-BD65FE4CD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows_installation" sheetId="1" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
